--- a/medicine/Psychotrope/Manufacture_des_tabacs_de_l'Ouest_Africain/Manufacture_des_tabacs_de_l'Ouest_Africain.xlsx
+++ b/medicine/Psychotrope/Manufacture_des_tabacs_de_l'Ouest_Africain/Manufacture_des_tabacs_de_l'Ouest_Africain.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Manufacture_des_tabacs_de_l%27Ouest_Africain</t>
+          <t>Manufacture_des_tabacs_de_l'Ouest_Africain</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La Manufacture des tabacs de l'Ouest Africain (MTOA) est une entreprise sénégalaise de culture et de production de tabac, filiale du groupe Imperial Tobacco.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Manufacture_des_tabacs_de_l%27Ouest_Africain</t>
+          <t>Manufacture_des_tabacs_de_l'Ouest_Africain</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,11 +524,13 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Entre 1989 et 1996, le chiffre d'affaires de la MTOA est passé de 8 à 20 milliards FCFA. La MTOA est alors détenue à 97 % par Bolloré Technologies, la Seita et la Coralma International, et à 3 % par des Sénégalais[1].
-Le 30 septembre 2006, le géant du tabac Philip Morris met un terme au partenariat qui le liait à la MTOA, provoquant une perte de 50 % de son chiffre d'affaires[2].
-En septembre 2016, les employés de la MTOA manifestent contre la nouvelle loi anti-tabac qui risque de provoquer la fermeture de l'entreprise[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Entre 1989 et 1996, le chiffre d'affaires de la MTOA est passé de 8 à 20 milliards FCFA. La MTOA est alors détenue à 97 % par Bolloré Technologies, la Seita et la Coralma International, et à 3 % par des Sénégalais.
+Le 30 septembre 2006, le géant du tabac Philip Morris met un terme au partenariat qui le liait à la MTOA, provoquant une perte de 50 % de son chiffre d'affaires.
+En septembre 2016, les employés de la MTOA manifestent contre la nouvelle loi anti-tabac qui risque de provoquer la fermeture de l'entreprise.
 </t>
         </is>
       </c>
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Manufacture_des_tabacs_de_l%27Ouest_Africain</t>
+          <t>Manufacture_des_tabacs_de_l'Ouest_Africain</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,10 +559,12 @@
           <t>Activités</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La société est implantée à Dakar, sur la commune d'arrondissement de Hann Bel-Air.
-La MTAO produit les deux seules marques de cigarettes fabriquées localement et intégralement commercialisées au Sénégal, les Excellence et les Houston[4].
+La MTAO produit les deux seules marques de cigarettes fabriquées localement et intégralement commercialisées au Sénégal, les Excellence et les Houston.
 </t>
         </is>
       </c>
